--- a/02 Deep Learning/02 Evaluation/03 RetinaNet Rotated BBox Combined/01 Simple Dataset/S_Rotated_Comb_combined_results.xlsx
+++ b/02 Deep Learning/02 Evaluation/03 RetinaNet Rotated BBox Combined/01 Simple Dataset/S_Rotated_Comb_combined_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg.</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -131,6 +134,20 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -157,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +196,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,16 +293,16 @@
         <v>0.862079749804535</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.949319242059349</v>
+        <v>1.04779416740558</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.762535362613713</v>
+        <v>0.871432984792153</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.06142472429942</v>
+        <v>1.14919557075509</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.579676259142224</v>
+        <v>0.648381074659991</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>3.84853556399969</v>
@@ -289,16 +322,16 @@
         <v>0.854730258014073</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.920790748520037</v>
+        <v>1.0138995702337</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.697837927058417</v>
+        <v>0.792828997879856</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.12922639891073</v>
+        <v>1.279146240383</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.697896085515413</v>
+        <v>0.898351524131478</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>7.25878302199965</v>
@@ -318,16 +351,16 @@
         <v>0.875078369905956</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.875170821462729</v>
+        <v>0.957335214567348</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.69488915579371</v>
+        <v>0.784570902578996</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.952459191726641</v>
+        <v>1.03125059203886</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.541270486545918</v>
+        <v>0.606360783107045</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.23571882300018</v>
@@ -347,16 +380,16 @@
         <v>0.865047021943574</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.88432194687256</v>
+        <v>0.969337265652803</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.72107518862006</v>
+        <v>0.810436394054519</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.02366154087394</v>
+        <v>1.12230597377679</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.597052611407202</v>
+        <v>0.717260924277992</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>7.12309659100026</v>
@@ -376,24 +409,85 @@
         <v>0.875117370892019</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.86812387213514</v>
+        <v>0.954037545177289</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.728359462690186</v>
+        <v>0.828462657735426</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.960721195196485</v>
+        <v>1.03127552512923</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.528174939245566</v>
+        <v>0.582355108219114</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>7.28410984599964</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>0.857210031347962</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.85453125</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0.855868544600939</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1.15804496216321</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.899651716240119</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1.10340709891725</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0.706635298732684</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>7.35282346799932</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <f aca="false">AVERAGE(B2:B7)</f>
+        <v>0.866241651411683</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <f aca="false">AVERAGE(C2:C7)</f>
+        <v>0.863072916666667</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <f aca="false">AVERAGE(D2:D7)</f>
+        <v>0.864653552526849</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <f aca="false">AVERAGE(E2:E7)</f>
+        <v>1.01674145419999</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <f aca="false">AVERAGE(F2:F7)</f>
+        <v>0.831230608880178</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <f aca="false">AVERAGE(G2:G7)</f>
+        <v>1.11943016683337</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <f aca="false">AVERAGE(H2:H7)</f>
+        <v>0.693224118854717</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <f aca="false">AVERAGE(I2:I7)</f>
+        <v>6.68384455233312</v>
       </c>
     </row>
   </sheetData>
